--- a/final sprint 1.xlsx
+++ b/final sprint 1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="57">
   <si>
     <t>Unique ID</t>
   </si>
@@ -181,6 +181,12 @@
   </si>
   <si>
     <t>hagar</t>
+  </si>
+  <si>
+    <t>gomana</t>
+  </si>
+  <si>
+    <t>karim</t>
   </si>
 </sst>
 </file>
@@ -532,7 +538,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -617,6 +623,9 @@
       <c r="C5">
         <v>3</v>
       </c>
+      <c r="D5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
@@ -712,6 +721,9 @@
       <c r="C12">
         <v>3</v>
       </c>
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
@@ -723,6 +735,9 @@
       <c r="C13">
         <v>3</v>
       </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
@@ -762,6 +777,9 @@
       <c r="C16">
         <v>3</v>
       </c>
+      <c r="D16" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
@@ -773,6 +791,9 @@
       <c r="C17">
         <v>3</v>
       </c>
+      <c r="D17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
@@ -812,6 +833,9 @@
       <c r="C20">
         <v>3</v>
       </c>
+      <c r="D20" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
@@ -823,6 +847,9 @@
       <c r="C21">
         <v>3</v>
       </c>
+      <c r="D21" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
@@ -862,6 +889,9 @@
       <c r="C24">
         <v>3</v>
       </c>
+      <c r="D24" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
@@ -873,6 +903,9 @@
       <c r="C25">
         <v>3</v>
       </c>
+      <c r="D25" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
@@ -912,6 +945,9 @@
       <c r="C28">
         <v>3</v>
       </c>
+      <c r="D28" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
@@ -923,6 +959,9 @@
       <c r="C29">
         <v>3</v>
       </c>
+      <c r="D29" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
@@ -962,6 +1001,9 @@
       <c r="C32">
         <v>3</v>
       </c>
+      <c r="D32" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
@@ -973,6 +1015,9 @@
       <c r="C33">
         <v>3</v>
       </c>
+      <c r="D33" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
@@ -1012,6 +1057,9 @@
       <c r="C36">
         <v>3</v>
       </c>
+      <c r="D36" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
@@ -1023,6 +1071,9 @@
       <c r="C37">
         <v>3</v>
       </c>
+      <c r="D37" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
@@ -1048,6 +1099,9 @@
       <c r="C39">
         <v>3</v>
       </c>
+      <c r="D39" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
@@ -1059,6 +1113,9 @@
       <c r="C40">
         <v>3</v>
       </c>
+      <c r="D40" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
@@ -1069,6 +1126,9 @@
       </c>
       <c r="C41">
         <v>3</v>
+      </c>
+      <c r="D41" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
